--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_12-53.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_12-53.xlsx
@@ -1155,7 +1155,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>92</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1840,7 +1840,7 @@
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="K44" s="10">
-        <v>2015.6500000000001</v>
+        <v>2009.21</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
